--- a/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-sigmoid-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4883040935672515</v>
+        <v>0.7573099415204678</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="E3" t="n">
-        <v>0.956140350877193</v>
+        <v>0.652046783625731</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E4" t="n">
-        <v>0.716374269005848</v>
+        <v>0.9122807017543859</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="D5" t="n">
-        <v>0.742857142857143</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7923976608187134</v>
+        <v>0.9210526315789475</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2376543209876543</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6395036225633949</v>
+        <v>0.7960248447204969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6380116959064327</v>
+        <v>0.5883040935672514</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6238714026445423</v>
+        <v>0.6081380624702939</v>
       </c>
       <c r="E7" t="n">
-        <v>0.638174139051332</v>
+        <v>0.7652046783625732</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-sigmoid-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.7234042553191489</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7573099415204678</v>
+        <v>0.9446366782006921</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6829268292682927</v>
+        <v>0.7234042553191489</v>
       </c>
       <c r="E3" t="n">
-        <v>0.652046783625731</v>
+        <v>0.8096885813148789</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.631578947368421</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.8749999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.8719723183391003</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4210526315789473</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5925925925925926</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9210526315789475</v>
+        <v>0.05709342560553635</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.4411764705882353</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7960248447204969</v>
+        <v>0.48</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5883040935672514</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6081380624702939</v>
+        <v>0.4843617021276596</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7652046783625732</v>
+        <v>0.6249134948096886</v>
       </c>
     </row>
   </sheetData>
